--- a/www/IndicatorsPerCountry/Tanzania_CopperProduction_TerritorialRef_1996_2012_CCode_834.xlsx
+++ b/www/IndicatorsPerCountry/Tanzania_CopperProduction_TerritorialRef_1996_2012_CCode_834.xlsx
@@ -120,13 +120,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Tanzania_CopperProduction_TerritorialRef_1996_2012_CCode_834.xlsx
+++ b/www/IndicatorsPerCountry/Tanzania_CopperProduction_TerritorialRef_1996_2012_CCode_834.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="32">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,58 +39,40 @@
     <t>0</t>
   </si>
   <si>
-    <t>5.8</t>
+    <t>2.645</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.715</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>3.661</t>
+  </si>
+  <si>
+    <t>3.285</t>
+  </si>
+  <si>
+    <t>3.275</t>
+  </si>
+  <si>
+    <t>2.852</t>
+  </si>
+  <si>
+    <t>2.319</t>
+  </si>
+  <si>
+    <t>5.326</t>
   </si>
   <si>
     <t>5.4</t>
   </si>
   <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.1</t>
+    <t>5.84</t>
   </si>
   <si>
     <t>Description</t>
@@ -4169,7 +4151,7 @@
         <v>1960.0</v>
       </c>
       <c r="E235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -4186,7 +4168,7 @@
         <v>1961.0</v>
       </c>
       <c r="E236" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -4203,7 +4185,7 @@
         <v>1962.0</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
@@ -4220,7 +4202,7 @@
         <v>1963.0</v>
       </c>
       <c r="E238" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
@@ -4237,7 +4219,7 @@
         <v>1964.0</v>
       </c>
       <c r="E239" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -4254,7 +4236,7 @@
         <v>1965.0</v>
       </c>
       <c r="E240" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
@@ -4271,7 +4253,7 @@
         <v>1966.0</v>
       </c>
       <c r="E241" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -4288,7 +4270,7 @@
         <v>1967.0</v>
       </c>
       <c r="E242" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
@@ -4305,7 +4287,7 @@
         <v>1968.0</v>
       </c>
       <c r="E243" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
@@ -4322,7 +4304,7 @@
         <v>1969.0</v>
       </c>
       <c r="E244" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
@@ -4339,7 +4321,7 @@
         <v>1970.0</v>
       </c>
       <c r="E245" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
@@ -4356,7 +4338,7 @@
         <v>1971.0</v>
       </c>
       <c r="E246" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
@@ -4373,7 +4355,7 @@
         <v>1972.0</v>
       </c>
       <c r="E247" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
@@ -4390,7 +4372,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
@@ -4407,7 +4389,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
@@ -4424,7 +4406,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
@@ -4441,7 +4423,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -4509,7 +4491,7 @@
         <v>1980.0</v>
       </c>
       <c r="E255" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -4526,7 +4508,7 @@
         <v>1981.0</v>
       </c>
       <c r="E256" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4543,7 +4525,7 @@
         <v>1982.0</v>
       </c>
       <c r="E257" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
@@ -4866,7 +4848,7 @@
         <v>2001.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
@@ -4883,7 +4865,7 @@
         <v>2002.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
@@ -4900,7 +4882,7 @@
         <v>2003.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -4917,7 +4899,7 @@
         <v>2004.0</v>
       </c>
       <c r="E279" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280">
@@ -4934,7 +4916,7 @@
         <v>2005.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -4951,7 +4933,7 @@
         <v>2006.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282">
@@ -4968,7 +4950,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -4985,7 +4967,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284">
@@ -5002,7 +4984,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285">
@@ -5019,7 +5001,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286">
@@ -5036,7 +5018,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287">
@@ -5053,7 +5035,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5071,50 +5053,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
